--- a/logs_csv/pdfs/model_0_date_2018-06-24_23-39-22_epochs_100/model_0_date_2018-06-24_23-39-22__epochs_100_step_3.xlsx
+++ b/logs_csv/pdfs/model_0_date_2018-06-24_23-39-22_epochs_100/model_0_date_2018-06-24_23-39-22__epochs_100_step_3.xlsx
@@ -48,7 +48,7 @@
     <t>val_perplexity</t>
   </si>
   <si>
-    <t>min</t>
+    <t>min/max</t>
   </si>
 </sst>
 </file>
@@ -857,8 +857,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G53" sqref="G53"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2346,6 +2346,14 @@
       <c r="A53" t="s">
         <v>9</v>
       </c>
+      <c r="B53">
+        <f>MAX(B1:B51)</f>
+        <v>0.88628553191743797</v>
+      </c>
+      <c r="D53">
+        <f>MIN(D1:D51)</f>
+        <v>0.35272548876955601</v>
+      </c>
       <c r="F53">
         <f>MAX(F1:F51)</f>
         <v>0.88385233747849701</v>
